--- a/results/Homeopathy_excluded/mod3.galtanBYhealth.eff.COMB.xlsx
+++ b/results/Homeopathy_excluded/mod3.galtanBYhealth.eff.COMB.xlsx
@@ -404,25 +404,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0121653866547177</v>
+        <v>-0.0121656740368562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0229320058296083</v>
+        <v>0.0229320014616127</v>
       </c>
       <c r="D2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0571112921740124</v>
+        <v>-0.057111570995037</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0327805188645771</v>
+        <v>0.0327802229213247</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.53049814940351</v>
+        <v>-0.530510782376367</v>
       </c>
       <c r="H2" t="n">
-        <v>0.595766591756908</v>
+        <v>0.595757835211719</v>
       </c>
     </row>
     <row r="3">
@@ -430,25 +430,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0077430775151587</v>
+        <v>-0.00774246163349436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0172197972474903</v>
+        <v>0.017219803333708</v>
       </c>
       <c r="D3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.0414932599413217</v>
+        <v>-0.0414926559884248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0260071049110043</v>
+        <v>0.0260077327214361</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.449661363828613</v>
+        <v>-0.449625439004775</v>
       </c>
       <c r="H3" t="n">
-        <v>0.652954634117072</v>
+        <v>0.652980542007744</v>
       </c>
     </row>
   </sheetData>
